--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,58 +40,73 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>insane</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>behind</t>
@@ -100,24 +115,12 @@
     <t>bad</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -130,27 +133,27 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -160,16 +163,13 @@
     <t>worth</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>well</t>
   </si>
   <si>
     <t>really</t>
@@ -178,7 +178,13 @@
     <t>recommend</t>
   </si>
   <si>
-    <t>dilemma</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>netflix</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -670,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -720,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9134615384615384</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,31 +794,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>0.82</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6">
-        <v>0.86</v>
-      </c>
-      <c r="L6">
-        <v>43</v>
-      </c>
-      <c r="M6">
-        <v>43</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8939393939393939</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7586206896551724</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7192982456140351</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8125</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,16 +1047,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.5925925925925926</v>
+        <v>0.6</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1097,16 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1120,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6470588235294118</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.4736842105263158</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.6875</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>0.4242424242424243</v>
@@ -1220,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.3541666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.3055555555555556</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,38 +1326,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L17">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17">
-        <v>0.2213114754098361</v>
-      </c>
-      <c r="L17">
-        <v>243</v>
-      </c>
-      <c r="M17">
-        <v>243</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>855</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,16 +1397,16 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.2203389830508475</v>
+        <v>0.2358834244080146</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>46</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5319148936170213</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.1851851851851852</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -1462,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5217391304347826</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.1408450704225352</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1512,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4615384615384616</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1538,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.1157894736842105</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3846153846153846</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.1058823529411765</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1612,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>76</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3571428571428572</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.02857142857142857</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1662,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1670,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3571428571428572</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1688,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>0.02922077922077922</v>
+      </c>
+      <c r="L24">
         <v>18</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24">
-        <v>0.02592592592592593</v>
-      </c>
-      <c r="L24">
-        <v>14</v>
-      </c>
       <c r="M24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>526</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1720,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3214285714285715</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1738,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.02108433734939759</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1762,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>650</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1770,13 +1776,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1538461538461539</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1788,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.01920614596670935</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1812,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>766</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1820,49 +1826,125 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04713804713804714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.01920614596670935</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>69</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.01152073732718894</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.04682274247491638</v>
+      </c>
+      <c r="C29">
         <v>14</v>
       </c>
-      <c r="D27">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>0.12</v>
-      </c>
-      <c r="F27">
-        <v>0.88</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>283</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.01728110599078341</v>
-      </c>
-      <c r="L27">
-        <v>30</v>
-      </c>
-      <c r="M27">
-        <v>30</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1706</v>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
